--- a/excel_dir/基础IO复杂场景-raid0-在线修改VD配置参数-v1.0.xlsx
+++ b/excel_dir/基础IO复杂场景-raid0-在线修改VD配置参数-v1.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SugonWork\Script-Auto-Create\excel_dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931D56C6-8E97-40D5-820C-BE0A7435FB41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AAFEB6-351B-4FA8-BABC-8853320888A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,38 +476,38 @@
     <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/vd_config_parameter_change_scripts/basic_io_f_12_42_003_010_sr_rw_mio.py</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/vd_config_parameter_change_scripts/basic_io_f_12_42_004_001_r_rw_sio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/vd_config_parameter_change_scripts/basic_io_f_12_42_004_002_s_rw_lio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/vd_config_parameter_change_scripts/basic_io_f_12_42_004_003_sr_rw_mio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/vd_config_parameter_change_scripts/basic_io_f_12_42_004_004_s_rw_sio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/vd_config_parameter_change_scripts/basic_io_f_12_42_004_005_sr_rw_mio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/vd_config_parameter_change_scripts/basic_io_f_12_42_004_006_r_rw_sio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/vd_config_parameter_change_scripts/basic_io_f_12_42_004_007_s_rw_lio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/vd_config_parameter_change_scripts/basic_io_f_12_42_004_008_sr_rw_mio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/vd_config_parameter_change_scripts/basic_io_f_12_42_004_009_s_rw_sio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/vd_config_parameter_change_scripts/basic_io_f_12_42_004_010_sr_rw_mio.py</t>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/vd_config_parameter_change_scripts/basic_io_f_12_42_004_001_r_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/vd_config_parameter_change_scripts/basic_io_f_12_42_004_002_s_rw_lio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/vd_config_parameter_change_scripts/basic_io_f_12_42_004_003_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/vd_config_parameter_change_scripts/basic_io_f_12_42_004_004_s_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/vd_config_parameter_change_scripts/basic_io_f_12_42_004_005_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/vd_config_parameter_change_scripts/basic_io_f_12_42_004_006_r_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/vd_config_parameter_change_scripts/basic_io_f_12_42_004_007_s_rw_lio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/vd_config_parameter_change_scripts/basic_io_f_12_42_004_008_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/vd_config_parameter_change_scripts/basic_io_f_12_42_004_009_s_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/vd_config_parameter_change_scripts/basic_io_f_12_42_004_010_sr_rw_mio.py</t>
   </si>
 </sst>
 </file>
@@ -904,7 +904,7 @@
   <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y21"/>
+      <selection activeCell="B13" sqref="A1:Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1073,10 +1073,10 @@
         <v>48</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1141,10 +1141,10 @@
         <v>48</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1209,10 +1209,10 @@
         <v>48</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1277,10 +1277,10 @@
         <v>48</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1345,10 +1345,10 @@
         <v>48</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1413,10 +1413,10 @@
         <v>48</v>
       </c>
       <c r="W7" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:25" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1481,10 +1481,10 @@
         <v>48</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:25" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1549,10 +1549,10 @@
         <v>48</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y9" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:25" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1617,10 +1617,10 @@
         <v>48</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:25" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1685,10 +1685,10 @@
         <v>48</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y11" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1696,7 +1696,7 @@
         <v>72</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>50</v>
@@ -1753,10 +1753,10 @@
         <v>48</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y12" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1764,7 +1764,7 @@
         <v>73</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>53</v>
@@ -1821,10 +1821,10 @@
         <v>48</v>
       </c>
       <c r="W13" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y13" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1832,7 +1832,7 @@
         <v>74</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>54</v>
@@ -1889,10 +1889,10 @@
         <v>48</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y14" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1900,7 +1900,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>55</v>
@@ -1957,10 +1957,10 @@
         <v>48</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y15" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1968,7 +1968,7 @@
         <v>76</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>56</v>
@@ -2025,10 +2025,10 @@
         <v>48</v>
       </c>
       <c r="W16" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y16" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:25" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2036,7 +2036,7 @@
         <v>77</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>57</v>
@@ -2093,10 +2093,10 @@
         <v>48</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y17" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2104,7 +2104,7 @@
         <v>78</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>58</v>
@@ -2161,10 +2161,10 @@
         <v>48</v>
       </c>
       <c r="W18" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y18" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2172,7 +2172,7 @@
         <v>79</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>59</v>
@@ -2229,10 +2229,10 @@
         <v>48</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y19" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2240,7 +2240,7 @@
         <v>80</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>60</v>
@@ -2297,10 +2297,10 @@
         <v>48</v>
       </c>
       <c r="W20" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y20" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2308,7 +2308,7 @@
         <v>81</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>61</v>
@@ -2365,10 +2365,10 @@
         <v>48</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Y21" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
